--- a/aimms_model/energy_hub/results/Generic_energy_hub_experiment_without_sizing/results_costs.xlsx
+++ b/aimms_model/energy_hub/results/Generic_energy_hub_experiment_without_sizing/results_costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="10035" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="13395" windowHeight="15135" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Operating_cost_per_technology" sheetId="1" r:id="rId1"/>
@@ -48,11 +48,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +78,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -92,9 +91,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -132,7 +131,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -204,7 +203,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,14 +381,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>471267.67794796795</v>
+        <v>471322.34079906536</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -397,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.5287839579827234E-3</v>
+        <v>18314.614558833753</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -433,7 +432,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -443,7 +442,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -494,7 +493,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -504,9 +503,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -516,14 +515,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>471267.67794795858</v>
+        <v>471322.34079906536</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.5287743406841755E-3</v>
+        <v>18314.614558833753</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -567,7 +566,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -577,15 +576,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1274090.4040229938</v>
+        <v>1259750.9761679501</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -595,15 +594,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1274090.4040229842</v>
+        <v>1259750.9761679501</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -613,9 +612,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -625,9 +624,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -637,14 +636,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1.3464854039770776E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>